--- a/spliced/walkingToRunning/2023-03-24_10-02-33/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-02-33/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11.46146202087402</v>
+        <v>10.46308040618896</v>
       </c>
       <c r="D2" t="n">
-        <v>6.774815559387207</v>
+        <v>-2.656880855560303</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.791510581970215</v>
+        <v>-2.153079509735107</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08649813517820913</v>
+        <v>-0.5190548883925257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.547052580675635</v>
+        <v>-1.450479206421397</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.252822607970066</v>
+        <v>-0.2456109922566745</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.02793502807617</v>
+        <v>5.822948455810547</v>
       </c>
       <c r="D3" t="n">
-        <v>-10.67957305908203</v>
+        <v>0.93921160697937</v>
       </c>
       <c r="E3" t="n">
-        <v>-5.600314140319824</v>
+        <v>-1.708410024642944</v>
       </c>
       <c r="F3" t="n">
-        <v>1.437740078075332</v>
+        <v>-0.2103044650108719</v>
       </c>
       <c r="G3" t="n">
-        <v>1.126307351126085</v>
+        <v>-1.79173934116638</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.559476730634846</v>
+        <v>-0.6462500674261389</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8.551541328430176</v>
+        <v>76.90617370605469</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.371816396713257</v>
+        <v>-20.47752571105957</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.286359786987305</v>
+        <v>-10.06823921203613</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5899122018608201</v>
+        <v>2.22406245532224</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2019931215176515</v>
+        <v>-1.244166610052261</v>
       </c>
       <c r="H4" t="n">
-        <v>-2.062480832175385</v>
+        <v>-0.3580538825594288</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.46308040618896</v>
+        <v>21.08987617492676</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.656880855560303</v>
+        <v>-20.16287040710449</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.153079509735107</v>
+        <v>30.18997001647949</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5190548883925257</v>
+        <v>1.525593809515442</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.450479206421397</v>
+        <v>-1.465595992349037</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2456109922566745</v>
+        <v>0.216453205767295</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.822948455810547</v>
+        <v>10.72996425628662</v>
       </c>
       <c r="D6" t="n">
-        <v>0.93921160697937</v>
+        <v>-3.895856618881226</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.708410024642944</v>
+        <v>4.558961868286133</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2103044650108719</v>
+        <v>-4.037772781986149</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.79173934116638</v>
+        <v>-3.096113548004377</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.6462500674261389</v>
+        <v>2.077658006398807</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>76.90617370605469</v>
+        <v>16.64472198486328</v>
       </c>
       <c r="D7" t="n">
-        <v>-20.47752571105957</v>
+        <v>-21.42762756347656</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.06823921203613</v>
+        <v>6.525417804718018</v>
       </c>
       <c r="F7" t="n">
-        <v>2.22406245532224</v>
+        <v>-7.127989895909813</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.244166610052261</v>
+        <v>1.020252332412979</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.3580538825594288</v>
+        <v>0.7169627440061292</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21.08987617492676</v>
+        <v>-22.31200981140137</v>
       </c>
       <c r="D8" t="n">
-        <v>-20.16287040710449</v>
+        <v>9.699769020080566</v>
       </c>
       <c r="E8" t="n">
-        <v>30.18997001647949</v>
+        <v>-17.87223434448242</v>
       </c>
       <c r="F8" t="n">
-        <v>1.525593809515442</v>
+        <v>0.1363662918695203</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.465595992349037</v>
+        <v>-0.7235090681117633</v>
       </c>
       <c r="H8" t="n">
-        <v>0.216453205767295</v>
+        <v>1.348089827050427</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.72996425628662</v>
+        <v>-1.527544975280761</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.895856618881226</v>
+        <v>-2.107955932617188</v>
       </c>
       <c r="E9" t="n">
-        <v>4.558961868286133</v>
+        <v>-5.828549861907959</v>
       </c>
       <c r="F9" t="n">
-        <v>-4.037772781986149</v>
+        <v>6.111373266727803</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.096113548004377</v>
+        <v>-3.888724038926818</v>
       </c>
       <c r="H9" t="n">
-        <v>2.077658006398807</v>
+        <v>-0.6717052065211169</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>16.64472198486328</v>
+        <v>25.63505172729492</v>
       </c>
       <c r="D10" t="n">
-        <v>-21.42762756347656</v>
+        <v>-27.48458480834961</v>
       </c>
       <c r="E10" t="n">
-        <v>6.525417804718018</v>
+        <v>41.41721725463867</v>
       </c>
       <c r="F10" t="n">
-        <v>-7.127989895909813</v>
+        <v>2.017424072293039</v>
       </c>
       <c r="G10" t="n">
-        <v>1.020252332412979</v>
+        <v>-1.605387079201143</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7169627440061292</v>
+        <v>-3.74285111324393</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-22.31200981140137</v>
+        <v>9.120732307434082</v>
       </c>
       <c r="D11" t="n">
-        <v>9.699769020080566</v>
+        <v>-3.210182666778564</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.87223434448242</v>
+        <v>14.09486484527588</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1363662918695203</v>
+        <v>-3.043187412426637</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.7235090681117633</v>
+        <v>-0.6237803290216224</v>
       </c>
       <c r="H11" t="n">
-        <v>1.348089827050427</v>
+        <v>1.956819472553102</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.527544975280761</v>
+        <v>10.57754039764404</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.107955932617188</v>
+        <v>3.087275743484497</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.828549861907959</v>
+        <v>21.89474105834961</v>
       </c>
       <c r="F12" t="n">
-        <v>6.111373266727803</v>
+        <v>-10.0801253147263</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.888724038926818</v>
+        <v>-3.291420891988214</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.6717052065211169</v>
+        <v>5.852694562870816</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.63505172729492</v>
+        <v>-59.92874145507812</v>
       </c>
       <c r="D13" t="n">
-        <v>-27.48458480834961</v>
+        <v>-16.7760124206543</v>
       </c>
       <c r="E13" t="n">
-        <v>41.41721725463867</v>
+        <v>-37.18990707397461</v>
       </c>
       <c r="F13" t="n">
-        <v>2.017424072293039</v>
+        <v>-1.435964323633735</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.605387079201143</v>
+        <v>-3.116479964565011</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.74285111324393</v>
+        <v>-1.45930368780239</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.120732307434082</v>
+        <v>18.34011650085449</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.210182666778564</v>
+        <v>2.91422700881958</v>
       </c>
       <c r="E14" t="n">
-        <v>14.09486484527588</v>
+        <v>-21.99715805053711</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.043187412426637</v>
+        <v>4.520515643435422</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6237803290216224</v>
+        <v>-6.424601422797</v>
       </c>
       <c r="H14" t="n">
-        <v>1.956819472553102</v>
+        <v>-1.258769486447896</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.57754039764404</v>
+        <v>8.823348999023438</v>
       </c>
       <c r="D15" t="n">
-        <v>3.087275743484497</v>
+        <v>-6.199845790863037</v>
       </c>
       <c r="E15" t="n">
-        <v>21.89474105834961</v>
+        <v>-2.462417125701904</v>
       </c>
       <c r="F15" t="n">
-        <v>-10.0801253147263</v>
+        <v>3.804642815384075</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.291420891988214</v>
+        <v>-2.879516224209357</v>
       </c>
       <c r="H15" t="n">
-        <v>5.852694562870816</v>
+        <v>0.2698007882070206</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-59.92874145507812</v>
+        <v>36.45148849487305</v>
       </c>
       <c r="D16" t="n">
-        <v>-16.7760124206543</v>
+        <v>-4.319328308105469</v>
       </c>
       <c r="E16" t="n">
-        <v>-37.18990707397461</v>
+        <v>22.25251770019531</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.435964323633735</v>
+        <v>2.50941535251603</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.116479964565011</v>
+        <v>3.106572741227184</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.45930368780239</v>
+        <v>1.131389019300618</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>18.34011650085449</v>
+        <v>11.48440456390381</v>
       </c>
       <c r="D17" t="n">
-        <v>2.91422700881958</v>
+        <v>5.108338356018066</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.99715805053711</v>
+        <v>7.226218223571777</v>
       </c>
       <c r="F17" t="n">
-        <v>4.520515643435422</v>
+        <v>-5.14737601803366</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.424601422797</v>
+        <v>0.1312354588679825</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.258769486447896</v>
+        <v>5.117585698477669</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>8.823348999023438</v>
+        <v>1.909540176391602</v>
       </c>
       <c r="D18" t="n">
-        <v>-6.199845790863037</v>
+        <v>-24.70354461669922</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.462417125701904</v>
+        <v>-9.863640785217283</v>
       </c>
       <c r="F18" t="n">
-        <v>3.804642815384075</v>
+        <v>-2.502922200470437</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.879516224209357</v>
+        <v>3.250862176469831</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2698007882070206</v>
+        <v>-2.965100693188241</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>36.45148849487305</v>
+        <v>13.16304683685303</v>
       </c>
       <c r="D19" t="n">
-        <v>-4.319328308105469</v>
+        <v>1.566379547119141</v>
       </c>
       <c r="E19" t="n">
-        <v>22.25251770019531</v>
+        <v>-18.78874206542969</v>
       </c>
       <c r="F19" t="n">
-        <v>2.50941535251603</v>
+        <v>2.697737143194075</v>
       </c>
       <c r="G19" t="n">
-        <v>3.106572741227184</v>
+        <v>-2.115886496125361</v>
       </c>
       <c r="H19" t="n">
-        <v>1.131389019300618</v>
+        <v>-4.09576786507806</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11.48440456390381</v>
+        <v>-26.10807037353516</v>
       </c>
       <c r="D20" t="n">
-        <v>5.108338356018066</v>
+        <v>-18.4659252166748</v>
       </c>
       <c r="E20" t="n">
-        <v>7.226218223571777</v>
+        <v>-26.81548118591309</v>
       </c>
       <c r="F20" t="n">
-        <v>-5.14737601803366</v>
+        <v>5.033141990359741</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1312354588679825</v>
+        <v>-4.757362827122633</v>
       </c>
       <c r="H20" t="n">
-        <v>5.117585698477669</v>
+        <v>-1.592488460403557</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.909540176391602</v>
+        <v>0.605715274810791</v>
       </c>
       <c r="D21" t="n">
-        <v>-24.70354461669922</v>
+        <v>0.4431395530700683</v>
       </c>
       <c r="E21" t="n">
-        <v>-9.863640785217283</v>
+        <v>13.34832572937012</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.502922200470437</v>
+        <v>4.163411040957872</v>
       </c>
       <c r="G21" t="n">
-        <v>3.250862176469831</v>
+        <v>2.378721077665152</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.965100693188241</v>
+        <v>-1.909676737064927</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.1363797187805175</v>
+      </c>
+      <c r="D22" t="n">
+        <v>12.19958686828613</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.961617946624756</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-2.440776584817322</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.270052646561497</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.502104572254968</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>23.61079406738281</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-17.57328033447266</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2.193590641021729</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.33349856712834</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5.117880192592036</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.15704054626636</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-16.4272632598877</v>
+      </c>
+      <c r="D24" t="n">
+        <v>6.268374919891357</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-29.44120216369629</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3903590963899126</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12.85140922601278</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-6.864528203182092</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-22.77685928344727</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-11.73852729797363</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-5.511547565460205</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2.438172858395985</v>
+      </c>
+      <c r="G25" t="n">
+        <v>7.542828546153372</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-8.415844210617843</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-20.23676681518555</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-30.38065719604492</v>
+      </c>
+      <c r="E26" t="n">
+        <v>13.72379970550537</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.09949780518202356</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-6.494732479397333</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-8.307635595472599</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5074601173400879</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.13600492477417</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.543452739715576</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.967174616863385</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-6.35848597656913</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-2.059108837045416</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.78357696533203</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-19.61955070495605</v>
+      </c>
+      <c r="E28" t="n">
+        <v>58.06728363037109</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-9.929815484465564</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-8.435556281384915</v>
+      </c>
+      <c r="H28" t="n">
+        <v>4.079216970814213</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-78.68696594238281</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-17.28630638122559</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-26.55977630615234</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-5.980313006064948</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-16.70210841062257</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5289435215133755</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.455702781677246</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.554847240447998</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-16.96383094787598</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.703074371214343</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-13.00758359758107</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-1.666179502181835</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-10.43552684783936</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-8.621312141418457</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-5.604441642761231</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.259694958762311</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-1.829939403122192</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-3.400759592759585</v>
       </c>
     </row>
   </sheetData>
